--- a/xlsx/美国本土外小岛屿_intext.xlsx
+++ b/xlsx/美国本土外小岛屿_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>美国本土外小岛屿</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国本土外小岛屿</t>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国本土外小岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>中華民國國家標準</t>
+    <t>中华民国国家标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.um</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B2%9B</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷群島</t>
+    <t>夏威夷群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>鳳凰群島</t>
+    <t>凤凰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>萊恩群島</t>
+    <t>莱恩群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%B1%B3%E6%8B%89%E7%8E%AF%E7%A4%81</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -521,27 +521,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
   </si>
   <si>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3394,7 +3385,7 @@
         <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3420,10 +3411,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3449,10 +3440,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3478,10 +3469,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3507,10 +3498,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3536,10 +3527,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3565,10 +3556,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3594,10 +3585,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3623,10 +3614,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3652,10 +3643,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3681,10 +3672,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
